--- a/routes/DevicesData.xlsx
+++ b/routes/DevicesData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Courses\Clinical\Clinical Final Project - 3rd Year\Healthcare-CMMS\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F8AFCB-FC37-42D8-9672-D17488BF66B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C4A76E-E8A2-4410-AB58-D23525277161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF064523-C934-49DF-905F-1AF10B8AD343}"/>
   </bookViews>
@@ -639,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CE01F4-A11F-484F-8644-A5C9D35A0B1C}">
-  <dimension ref="A3:G32"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -655,38 +655,84 @@
     <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>42408</v>
+      </c>
+      <c r="E2" s="2">
+        <v>42408</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1746</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42408</v>
+      </c>
+      <c r="E3" s="2">
+        <v>42408</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>11378619</v>
       </c>
       <c r="D4" s="2">
         <v>42408</v>
@@ -695,7 +741,7 @@
         <v>42408</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -703,13 +749,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1746</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>42408</v>
@@ -718,7 +764,7 @@
         <v>42408</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -726,13 +772,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4">
-        <v>11378619</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>42408</v>
@@ -749,13 +795,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>42408</v>
@@ -764,21 +810,21 @@
         <v>42408</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>18</v>
+      <c r="A8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="C8" s="6">
+        <v>41355</v>
       </c>
       <c r="D8" s="2">
         <v>42408</v>
@@ -787,7 +833,7 @@
         <v>42408</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -795,13 +841,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>42408</v>
@@ -818,22 +864,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="6">
-        <v>41355</v>
-      </c>
-      <c r="D10" s="2">
-        <v>42408</v>
-      </c>
-      <c r="E10" s="2">
-        <v>42408</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3">
+        <v>40703</v>
+      </c>
+      <c r="E10" s="3">
+        <v>40703</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -841,91 +887,91 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D11" s="2">
-        <v>42408</v>
+        <v>42098</v>
       </c>
       <c r="E11" s="2">
-        <v>42408</v>
+        <v>42098</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2">
+        <v>42098</v>
+      </c>
+      <c r="E12" s="2">
+        <v>42098</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3">
-        <v>40703</v>
-      </c>
-      <c r="E12" s="3">
-        <v>40703</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
       <c r="B13" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2">
-        <v>42098</v>
-      </c>
-      <c r="E13" s="2">
-        <v>42098</v>
+        <v>35</v>
+      </c>
+      <c r="D13" s="3">
+        <v>38363</v>
+      </c>
+      <c r="E13" s="3">
+        <v>38363</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>18</v>
+      <c r="A14" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2">
-        <v>42098</v>
-      </c>
-      <c r="E14" s="2">
-        <v>42098</v>
+        <v>37</v>
+      </c>
+      <c r="C14" s="9">
+        <v>19866349</v>
+      </c>
+      <c r="D14" s="3">
+        <v>38383</v>
+      </c>
+      <c r="E14" s="3">
+        <v>38383</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -933,22 +979,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="9">
+        <v>19952133</v>
       </c>
       <c r="D15" s="3">
-        <v>38363</v>
+        <v>38383</v>
       </c>
       <c r="E15" s="3">
-        <v>38363</v>
+        <v>38383</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -958,63 +1004,63 @@
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="9">
-        <v>19866349</v>
+      <c r="B16" s="9">
+        <v>3300</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="D16" s="3">
         <v>38383</v>
       </c>
       <c r="E16" s="3">
-        <v>38383</v>
+        <v>38363</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="9">
-        <v>19952133</v>
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="10">
+        <v>101179906</v>
       </c>
       <c r="D17" s="3">
-        <v>38383</v>
+        <v>40703</v>
       </c>
       <c r="E17" s="3">
-        <v>38383</v>
+        <v>40703</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="9">
-        <v>3300</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="3">
-        <v>38383</v>
-      </c>
-      <c r="E18" s="3">
-        <v>38363</v>
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="12">
+        <v>182426</v>
+      </c>
+      <c r="D18" s="2">
+        <v>42408</v>
+      </c>
+      <c r="E18" s="2">
+        <v>42408</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
@@ -1024,46 +1070,46 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>26</v>
+      <c r="A19" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="10">
-        <v>101179906</v>
-      </c>
-      <c r="D19" s="3">
-        <v>40703</v>
-      </c>
-      <c r="E19" s="3">
-        <v>40703</v>
+        <v>45</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="11">
+        <v>42408</v>
+      </c>
+      <c r="E19" s="2">
+        <v>42408</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>43</v>
+      <c r="A20" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C20" s="12">
-        <v>182426</v>
-      </c>
-      <c r="D20" s="2">
-        <v>42408</v>
-      </c>
-      <c r="E20" s="2">
+        <v>2408</v>
+      </c>
+      <c r="D20" s="11">
+        <v>42408</v>
+      </c>
+      <c r="E20" s="11">
         <v>42408</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
         <v>40</v>
@@ -1071,22 +1117,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2019</v>
       </c>
       <c r="D21" s="11">
         <v>42408</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="11">
         <v>42408</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
         <v>40</v>
@@ -1094,13 +1140,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="12">
-        <v>2408</v>
+        <v>114</v>
       </c>
       <c r="D22" s="11">
         <v>42408</v>
@@ -1109,21 +1155,21 @@
         <v>42408</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>48</v>
+      <c r="A23" t="s">
+        <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="12">
-        <v>2019</v>
+        <v>52</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D23" s="11">
         <v>42408</v>
@@ -1132,7 +1178,7 @@
         <v>42408</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
         <v>40</v>
@@ -1140,13 +1186,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="12">
-        <v>114</v>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="5">
+        <v>70.122550000000004</v>
       </c>
       <c r="D24" s="11">
         <v>42408</v>
@@ -1155,21 +1201,21 @@
         <v>42408</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>53</v>
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="5">
+        <v>70.122609999999995</v>
       </c>
       <c r="D25" s="11">
         <v>42408</v>
@@ -1178,53 +1224,53 @@
         <v>42408</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
+      <c r="A26" t="s">
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="5">
-        <v>70.122550000000004</v>
-      </c>
-      <c r="D26" s="11">
-        <v>42408</v>
-      </c>
-      <c r="E26" s="11">
-        <v>42408</v>
+        <v>58</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="2">
+        <v>42098</v>
+      </c>
+      <c r="E26" s="2">
+        <v>42098</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
+      <c r="A27" t="s">
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C27" s="5">
-        <v>70.122609999999995</v>
-      </c>
-      <c r="D27" s="11">
-        <v>42408</v>
-      </c>
-      <c r="E27" s="11">
-        <v>42408</v>
+        <v>119772</v>
+      </c>
+      <c r="D27" s="2">
+        <v>42098</v>
+      </c>
+      <c r="E27" s="2">
+        <v>42098</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
         <v>39</v>
@@ -1232,13 +1278,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2">
         <v>42098</v>
@@ -1255,13 +1301,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C29" s="5">
-        <v>119772</v>
+        <v>5397484256</v>
       </c>
       <c r="D29" s="2">
         <v>42098</v>
@@ -1270,21 +1316,21 @@
         <v>42098</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>62</v>
+      <c r="A30" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D30" s="2">
         <v>42098</v>
@@ -1293,55 +1339,9 @@
         <v>42098</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="5">
-        <v>5397484256</v>
-      </c>
-      <c r="D31" s="2">
-        <v>42098</v>
-      </c>
-      <c r="E31" s="2">
-        <v>42098</v>
-      </c>
-      <c r="F31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="2">
-        <v>42098</v>
-      </c>
-      <c r="E32" s="2">
-        <v>42098</v>
-      </c>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
         <v>39</v>
       </c>
     </row>

--- a/routes/DevicesData.xlsx
+++ b/routes/DevicesData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Courses\Clinical\Clinical Final Project - 3rd Year\Healthcare-CMMS\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C4A76E-E8A2-4410-AB58-D23525277161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCA9706-52F2-4EDF-92D3-871E6FF00B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF064523-C934-49DF-905F-1AF10B8AD343}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>Volcano s5i</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -639,709 +642,800 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CE01F4-A11F-484F-8644-A5C9D35A0B1C}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
-        <v>42408</v>
-      </c>
       <c r="E2" s="2">
         <v>42408</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2">
+        <v>42408</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>1746</v>
       </c>
-      <c r="D3" s="2">
-        <v>42408</v>
-      </c>
       <c r="E3" s="2">
         <v>42408</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2">
+        <v>42408</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>11378619</v>
       </c>
-      <c r="D4" s="2">
-        <v>42408</v>
-      </c>
       <c r="E4" s="2">
         <v>42408</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2">
+        <v>42408</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2">
-        <v>42408</v>
-      </c>
       <c r="E5" s="2">
         <v>42408</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2">
+        <v>42408</v>
+      </c>
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2">
-        <v>42408</v>
-      </c>
       <c r="E6" s="2">
         <v>42408</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2">
+        <v>42408</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2">
-        <v>42408</v>
-      </c>
       <c r="E7" s="2">
         <v>42408</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2">
+        <v>42408</v>
+      </c>
+      <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="6">
         <v>41355</v>
       </c>
-      <c r="D8" s="2">
-        <v>42408</v>
-      </c>
       <c r="E8" s="2">
         <v>42408</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2">
+        <v>42408</v>
+      </c>
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2">
-        <v>42408</v>
-      </c>
       <c r="E9" s="2">
         <v>42408</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2">
+        <v>42408</v>
+      </c>
+      <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="3">
-        <v>40703</v>
       </c>
       <c r="E10" s="3">
         <v>40703</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3">
+        <v>40703</v>
+      </c>
+      <c r="G10" t="s">
         <v>21</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="2">
-        <v>42098</v>
       </c>
       <c r="E11" s="2">
         <v>42098</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2">
+        <v>42098</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" s="2">
-        <v>42098</v>
       </c>
       <c r="E12" s="2">
         <v>42098</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2">
+        <v>42098</v>
+      </c>
+      <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="D13" s="3">
-        <v>38363</v>
       </c>
       <c r="E13" s="3">
         <v>38363</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3">
+        <v>38363</v>
+      </c>
+      <c r="G13" t="s">
         <v>36</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9">
+      <c r="D14" s="9">
         <v>19866349</v>
-      </c>
-      <c r="D14" s="3">
-        <v>38383</v>
       </c>
       <c r="E14" s="3">
         <v>38383</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3">
+        <v>38383</v>
+      </c>
+      <c r="G14" t="s">
         <v>21</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="9">
+      <c r="D15" s="9">
         <v>19952133</v>
-      </c>
-      <c r="D15" s="3">
-        <v>38383</v>
       </c>
       <c r="E15" s="3">
         <v>38383</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3">
+        <v>38383</v>
+      </c>
+      <c r="G15" t="s">
         <v>21</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="9">
+      <c r="C16" s="9">
         <v>3300</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>38383</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>38363</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>36</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="10">
+      <c r="D17" s="10">
         <v>101179906</v>
-      </c>
-      <c r="D17" s="3">
-        <v>40703</v>
       </c>
       <c r="E17" s="3">
         <v>40703</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3">
+        <v>40703</v>
+      </c>
+      <c r="G17" t="s">
         <v>21</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="12">
+      <c r="D18" s="12">
         <v>182426</v>
       </c>
-      <c r="D18" s="2">
-        <v>42408</v>
-      </c>
       <c r="E18" s="2">
         <v>42408</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2">
+        <v>42408</v>
+      </c>
+      <c r="G18" t="s">
         <v>36</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="11">
-        <v>42408</v>
-      </c>
-      <c r="E19" s="2">
-        <v>42408</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" s="11">
+        <v>42408</v>
+      </c>
+      <c r="F19" s="2">
+        <v>42408</v>
+      </c>
+      <c r="G19" t="s">
         <v>47</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="12">
+      <c r="D20" s="12">
         <v>2408</v>
       </c>
-      <c r="D20" s="11">
-        <v>42408</v>
-      </c>
       <c r="E20" s="11">
         <v>42408</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="11">
+        <v>42408</v>
+      </c>
+      <c r="G20" t="s">
         <v>21</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="12">
+      <c r="D21" s="12">
         <v>2019</v>
       </c>
-      <c r="D21" s="11">
-        <v>42408</v>
-      </c>
       <c r="E21" s="11">
         <v>42408</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="11">
+        <v>42408</v>
+      </c>
+      <c r="G21" t="s">
         <v>21</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="12">
+      <c r="D22" s="12">
         <v>114</v>
       </c>
-      <c r="D22" s="11">
-        <v>42408</v>
-      </c>
       <c r="E22" s="11">
         <v>42408</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="11">
+        <v>42408</v>
+      </c>
+      <c r="G22" t="s">
         <v>12</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="11">
-        <v>42408</v>
-      </c>
       <c r="E23" s="11">
         <v>42408</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="11">
+        <v>42408</v>
+      </c>
+      <c r="G23" t="s">
         <v>12</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="5">
+      <c r="D24" s="5">
         <v>70.122550000000004</v>
       </c>
-      <c r="D24" s="11">
-        <v>42408</v>
-      </c>
       <c r="E24" s="11">
         <v>42408</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="11">
+        <v>42408</v>
+      </c>
+      <c r="G24" t="s">
         <v>47</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="5">
+      <c r="D25" s="5">
         <v>70.122609999999995</v>
       </c>
-      <c r="D25" s="11">
-        <v>42408</v>
-      </c>
       <c r="E25" s="11">
         <v>42408</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="11">
+        <v>42408</v>
+      </c>
+      <c r="G25" t="s">
         <v>47</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D26" s="2">
-        <v>42098</v>
       </c>
       <c r="E26" s="2">
         <v>42098</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2">
+        <v>42098</v>
+      </c>
+      <c r="G26" t="s">
         <v>36</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="5">
+      <c r="D27" s="5">
         <v>119772</v>
-      </c>
-      <c r="D27" s="2">
-        <v>42098</v>
       </c>
       <c r="E27" s="2">
         <v>42098</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2">
+        <v>42098</v>
+      </c>
+      <c r="G27" t="s">
         <v>61</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="D28" s="2">
-        <v>42098</v>
       </c>
       <c r="E28" s="2">
         <v>42098</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2">
+        <v>42098</v>
+      </c>
+      <c r="G28" t="s">
         <v>36</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="5">
+      <c r="D29" s="5">
         <v>5397484256</v>
-      </c>
-      <c r="D29" s="2">
-        <v>42098</v>
       </c>
       <c r="E29" s="2">
         <v>42098</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2">
+        <v>42098</v>
+      </c>
+      <c r="G29" t="s">
         <v>68</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="D30" s="2">
-        <v>42098</v>
       </c>
       <c r="E30" s="2">
         <v>42098</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2">
+        <v>42098</v>
+      </c>
+      <c r="G30" t="s">
         <v>21</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>39</v>
       </c>
     </row>

--- a/routes/DevicesData.xlsx
+++ b/routes/DevicesData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Courses\Clinical\Clinical Final Project - 3rd Year\Healthcare-CMMS\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCA9706-52F2-4EDF-92D3-871E6FF00B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C84B7A-B69E-4A78-AEEC-6FFB83BBEB1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF064523-C934-49DF-905F-1AF10B8AD343}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Diathermy</t>
   </si>
   <si>
-    <t xml:space="preserve">EP-Shuttle  </t>
-  </si>
-  <si>
     <t>ST-5687</t>
   </si>
   <si>
@@ -244,6 +241,12 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>ScrappingDate</t>
+  </si>
+  <si>
+    <t>EP-Shuttle</t>
   </si>
 </sst>
 </file>
@@ -642,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CE01F4-A11F-484F-8644-A5C9D35A0B1C}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -655,13 +658,14 @@
     <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -679,13 +683,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -693,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>11</v>
@@ -704,14 +711,14 @@
       <c r="F2" s="2">
         <v>42408</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -730,14 +737,15 @@
       <c r="F3" s="2">
         <v>42408</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -745,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4">
         <v>11378619</v>
@@ -756,14 +764,15 @@
       <c r="F4" s="2">
         <v>42408</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
+      <c r="G4" s="2"/>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -771,62 +780,66 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="2">
+        <v>42408</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42408</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2">
-        <v>42408</v>
-      </c>
-      <c r="F5" s="2">
-        <v>42408</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="2">
+        <v>42408</v>
+      </c>
+      <c r="F6" s="2">
+        <v>42408</v>
+      </c>
+      <c r="G6" s="2">
+        <v>43229</v>
+      </c>
+      <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2">
-        <v>42408</v>
-      </c>
-      <c r="F6" s="2">
-        <v>42408</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2">
         <v>42408</v>
@@ -834,22 +847,23 @@
       <c r="F7" s="2">
         <v>42408</v>
       </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="6">
         <v>41355</v>
@@ -860,51 +874,55 @@
       <c r="F8" s="2">
         <v>42408</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="E9" s="2">
         <v>42408</v>
       </c>
       <c r="F9" s="2">
         <v>42408</v>
       </c>
-      <c r="G9" t="s">
-        <v>21</v>
+      <c r="G9" s="2">
+        <v>43629</v>
       </c>
       <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="3">
         <v>40703</v>
@@ -912,25 +930,25 @@
       <c r="F10" s="3">
         <v>40703</v>
       </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
       <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="E11" s="2">
         <v>42098</v>
@@ -938,25 +956,26 @@
       <c r="F11" s="2">
         <v>42098</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2">
         <v>42098</v>
@@ -964,25 +983,26 @@
       <c r="F12" s="2">
         <v>42098</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="E13" s="3">
         <v>38363</v>
@@ -990,22 +1010,22 @@
       <c r="F13" s="3">
         <v>38363</v>
       </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
       <c r="H13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="9">
         <v>19866349</v>
@@ -1016,22 +1036,25 @@
       <c r="F14" s="3">
         <v>38383</v>
       </c>
-      <c r="G14" t="s">
-        <v>21</v>
+      <c r="G14" s="3">
+        <v>39861</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="9">
         <v>19952133</v>
@@ -1042,25 +1065,25 @@
       <c r="F15" s="3">
         <v>38383</v>
       </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
       <c r="H15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="9">
         <v>3300</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3">
         <v>38383</v>
@@ -1068,22 +1091,22 @@
       <c r="F16" s="3">
         <v>38363</v>
       </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
       <c r="H16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="10">
         <v>101179906</v>
@@ -1094,22 +1117,22 @@
       <c r="F17" s="3">
         <v>40703</v>
       </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
       <c r="H17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="D18" s="12">
         <v>182426</v>
@@ -1120,48 +1143,52 @@
       <c r="F18" s="2">
         <v>42408</v>
       </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
+      <c r="G18" s="2"/>
       <c r="H18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="11">
+        <v>42408</v>
+      </c>
+      <c r="F19" s="2">
+        <v>42408</v>
+      </c>
+      <c r="G19" s="2">
+        <v>43578</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="11">
-        <v>42408</v>
-      </c>
-      <c r="F19" s="2">
-        <v>42408</v>
-      </c>
-      <c r="G19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="D20" s="12">
         <v>2408</v>
@@ -1172,22 +1199,23 @@
       <c r="F20" s="11">
         <v>42408</v>
       </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
+      <c r="G20" s="11"/>
       <c r="H20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="D21" s="12">
         <v>2019</v>
@@ -1198,22 +1226,23 @@
       <c r="F21" s="11">
         <v>42408</v>
       </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
+      <c r="G21" s="11"/>
       <c r="H21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="D22" s="12">
         <v>114</v>
@@ -1224,48 +1253,50 @@
       <c r="F22" s="11">
         <v>42408</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="11"/>
+      <c r="H22" t="s">
         <v>12</v>
       </c>
-      <c r="H22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="E23" s="11">
         <v>42408</v>
       </c>
       <c r="F23" s="11">
         <v>42408</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="11"/>
+      <c r="H23" t="s">
         <v>12</v>
       </c>
-      <c r="H23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="5">
         <v>70.122550000000004</v>
@@ -1276,22 +1307,23 @@
       <c r="F24" s="11">
         <v>42408</v>
       </c>
-      <c r="G24" t="s">
-        <v>47</v>
-      </c>
+      <c r="G24" s="11"/>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="5">
         <v>70.122609999999995</v>
@@ -1302,25 +1334,26 @@
       <c r="F25" s="11">
         <v>42408</v>
       </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
+      <c r="G25" s="11"/>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
         <v>57</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="E26" s="2">
         <v>42098</v>
@@ -1328,14 +1361,15 @@
       <c r="F26" s="2">
         <v>42098</v>
       </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
+      <c r="G26" s="2"/>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1343,7 +1377,7 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="5">
         <v>119772</v>
@@ -1354,25 +1388,28 @@
       <c r="F27" s="2">
         <v>42098</v>
       </c>
-      <c r="G27" t="s">
-        <v>61</v>
+      <c r="G27" s="2">
+        <v>42615</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
         <v>62</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="E28" s="2">
         <v>42098</v>
@@ -1380,22 +1417,23 @@
       <c r="F28" s="2">
         <v>42098</v>
       </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
+      <c r="G28" s="2"/>
       <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="5">
         <v>5397484256</v>
@@ -1406,25 +1444,26 @@
       <c r="F29" s="2">
         <v>42098</v>
       </c>
-      <c r="G29" t="s">
-        <v>68</v>
-      </c>
+      <c r="G29" s="2"/>
       <c r="H29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="E30" s="2">
         <v>42098</v>
@@ -1432,11 +1471,12 @@
       <c r="F30" s="2">
         <v>42098</v>
       </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
+      <c r="G30" s="2"/>
       <c r="H30" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/routes/DevicesData.xlsx
+++ b/routes/DevicesData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Courses\Clinical\Clinical Final Project - 3rd Year\Healthcare-CMMS\routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\College\3rd Year\2nd Term\Clinical\Healthcare-CMMS\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C84B7A-B69E-4A78-AEEC-6FFB83BBEB1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146F332D-104D-473B-A0A1-F7188508E590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF064523-C934-49DF-905F-1AF10B8AD343}"/>
+    <workbookView xWindow="2055" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{CF064523-C934-49DF-905F-1AF10B8AD343}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>EP-Shuttle</t>
+  </si>
+  <si>
+    <t>PPMInterval</t>
   </si>
 </sst>
 </file>
@@ -645,25 +648,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CE01F4-A11F-484F-8644-A5C9D35A0B1C}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -691,8 +695,11 @@
       <c r="I1" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -717,8 +724,11 @@
       <c r="I2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -744,8 +754,11 @@
       <c r="I3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -771,8 +784,11 @@
       <c r="I4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -798,8 +814,11 @@
       <c r="I5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -827,8 +846,11 @@
       <c r="I6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -854,8 +876,11 @@
       <c r="I7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -881,8 +906,11 @@
       <c r="I8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -910,8 +938,11 @@
       <c r="I9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -936,8 +967,11 @@
       <c r="I10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -963,8 +997,11 @@
       <c r="I11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -990,8 +1027,11 @@
       <c r="I12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1016,8 +1056,11 @@
       <c r="I13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1045,8 +1088,11 @@
       <c r="I14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1071,8 +1117,11 @@
       <c r="I15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1097,8 +1146,11 @@
       <c r="I16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1123,8 +1175,11 @@
       <c r="I17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1150,8 +1205,11 @@
       <c r="I18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1179,8 +1237,11 @@
       <c r="I19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1206,8 +1267,11 @@
       <c r="I20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1233,8 +1297,11 @@
       <c r="I21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1260,8 +1327,11 @@
       <c r="I22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1287,8 +1357,11 @@
       <c r="I23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1314,8 +1387,11 @@
       <c r="I24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1341,8 +1417,11 @@
       <c r="I25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1368,8 +1447,11 @@
       <c r="I26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1397,8 +1479,11 @@
       <c r="I27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1424,8 +1509,11 @@
       <c r="I28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1451,8 +1539,11 @@
       <c r="I29" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1477,6 +1568,9 @@
       </c>
       <c r="I30" t="s">
         <v>38</v>
+      </c>
+      <c r="J30">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/routes/DevicesData.xlsx
+++ b/routes/DevicesData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\College\3rd Year\2nd Term\Clinical\Healthcare-CMMS\routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Courses\Clinical\Clinical Final Project - 3rd Year\Healthcare-CMMS\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146F332D-104D-473B-A0A1-F7188508E590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A95F931-F863-4756-871D-5E5D21431DE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{CF064523-C934-49DF-905F-1AF10B8AD343}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF064523-C934-49DF-905F-1AF10B8AD343}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,21 +650,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CE01F4-A11F-484F-8644-A5C9D35A0B1C}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -695,7 +695,7 @@
       <c r="I1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -724,7 +724,7 @@
       <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="5">
         <v>90</v>
       </c>
     </row>
@@ -754,7 +754,7 @@
       <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="5">
         <v>365</v>
       </c>
     </row>
@@ -784,7 +784,7 @@
       <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>180</v>
       </c>
     </row>
@@ -814,7 +814,7 @@
       <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <v>180</v>
       </c>
     </row>
@@ -846,7 +846,7 @@
       <c r="I6" t="s">
         <v>8</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <v>365</v>
       </c>
     </row>
@@ -876,7 +876,7 @@
       <c r="I7" t="s">
         <v>8</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <v>365</v>
       </c>
     </row>
@@ -906,7 +906,7 @@
       <c r="I8" t="s">
         <v>8</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <v>30</v>
       </c>
     </row>
@@ -938,7 +938,7 @@
       <c r="I9" t="s">
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <v>30</v>
       </c>
     </row>
@@ -967,7 +967,7 @@
       <c r="I10" t="s">
         <v>8</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <v>30</v>
       </c>
     </row>
@@ -997,7 +997,7 @@
       <c r="I11" t="s">
         <v>30</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <v>365</v>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       <c r="I12" t="s">
         <v>30</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="5">
         <v>365</v>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       <c r="I13" t="s">
         <v>30</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1088,11 +1088,11 @@
       <c r="I14" t="s">
         <v>30</v>
       </c>
-      <c r="J14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30">
+      <c r="J14" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="I15" t="s">
         <v>30</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       <c r="I16" t="s">
         <v>39</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       <c r="I17" t="s">
         <v>39</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       <c r="I18" t="s">
         <v>39</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="5">
         <v>180</v>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       <c r="I19" t="s">
         <v>39</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       <c r="I20" t="s">
         <v>39</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       <c r="I21" t="s">
         <v>39</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       <c r="I22" t="s">
         <v>39</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="5">
         <v>365</v>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       <c r="I23" t="s">
         <v>39</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="5">
         <v>365</v>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       <c r="I24" t="s">
         <v>38</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       <c r="I25" t="s">
         <v>38</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       <c r="I26" t="s">
         <v>38</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="5">
         <v>90</v>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       <c r="I27" t="s">
         <v>38</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="5">
         <v>180</v>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       <c r="I28" t="s">
         <v>38</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="5">
         <v>90</v>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       <c r="I29" t="s">
         <v>38</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="5">
         <v>365</v>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       <c r="I30" t="s">
         <v>38</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="5">
         <v>30</v>
       </c>
     </row>
